--- a/src/main/resources/excels/check_product_detail_sf/Update supplier.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Update supplier.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C24E62-791A-4BE2-8627-4F72CBA68F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C94D52-1AD2-4632-B2F8-FF1FEC7676DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$9</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>Check Error when input available supplier code</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
   </si>
   <si>
     <t>Check Error when input invalid format supplier code</t>
-  </si>
-  <si>
-    <t>UP_SUPPLIER_VIE_01</t>
   </si>
   <si>
     <t>View supplier detail</t>
@@ -63,22 +57,12 @@
     <t>1. Check all information show correctly</t>
   </si>
   <si>
-    <t>UP_SUPPLIER_VIE_02</t>
-  </si>
-  <si>
     <t>Update VN supplier</t>
   </si>
   <si>
     <t>Dashboard:
 1. Access to dashboard
 2. Update VN supplier</t>
-  </si>
-  <si>
-    <t>1. Text must be translated correctly according to the console language (VIE)
-2. Can update supplier information</t>
-  </si>
-  <si>
-    <t>UP_SUPPLIER_VIE_03</t>
   </si>
   <si>
     <t>Update Non-VN supplier</t>
@@ -89,22 +73,9 @@
 2. Update Non-VN supplier</t>
   </si>
   <si>
-    <t>UP_SUPPLIER_VIE_04</t>
-  </si>
-  <si>
     <t>Dashboard:
 1. Access to dashboard
 2. Update supplier with blank required field</t>
-  </si>
-  <si>
-    <t>1. Error should be shown and  must be translated correctly according to the console language (VIE)
-2. Can not Update supplier</t>
-  </si>
-  <si>
-    <t>UP_SUPPLIER_VIE_05</t>
-  </si>
-  <si>
-    <t>UP_SUPPLIER_VIE_06</t>
   </si>
   <si>
     <t>Dashboard:
@@ -117,22 +88,12 @@
 2. Update supplier with supplier code contains: space, specical characters …</t>
   </si>
   <si>
-    <t>1. Error should be shown and  must be translated correctly according to the console language (VIE)
-2. Can not update supplier</t>
-  </si>
-  <si>
-    <t>UP_SUPPLIER_VIE_07</t>
-  </si>
-  <si>
     <t>Delete Supplier</t>
   </si>
   <si>
     <t>Dashboard:
 1. Access to dashboard
 2. Delete supplier</t>
-  </si>
-  <si>
-    <t>UP_SUPPLIER_VIE_08</t>
   </si>
   <si>
     <t>Check Order history</t>
@@ -155,42 +116,6 @@
     <t>Re-use pre-condition on previous steps</t>
   </si>
   <si>
-    <t>UP_SUPPLIER_ENG_01</t>
-  </si>
-  <si>
-    <t>UP_SUPPLIER_ENG_02</t>
-  </si>
-  <si>
-    <t>UP_SUPPLIER_ENG_03</t>
-  </si>
-  <si>
-    <t>UP_SUPPLIER_ENG_04</t>
-  </si>
-  <si>
-    <t>UP_SUPPLIER_ENG_05</t>
-  </si>
-  <si>
-    <t>UP_SUPPLIER_ENG_06</t>
-  </si>
-  <si>
-    <t>UP_SUPPLIER_ENG_07</t>
-  </si>
-  <si>
-    <t>UP_SUPPLIER_ENG_08</t>
-  </si>
-  <si>
-    <t>1. Text must be translated correctly according to the console language (ENG)
-2. Can update supplier information</t>
-  </si>
-  <si>
-    <t>1. Error should be shown and  must be translated correctly according to the console language (ENG)
-2. Can not Update supplier</t>
-  </si>
-  <si>
-    <t>1. Error should be shown and  must be translated correctly according to the console language (ENG)
-2. Can not update supplier</t>
-  </si>
-  <si>
     <t>Post API create some purchase order and search by ID</t>
   </si>
   <si>
@@ -202,12 +127,53 @@
   <si>
     <t>PASS</t>
   </si>
+  <si>
+    <t>Result VIE</t>
+  </si>
+  <si>
+    <t>Result ENG</t>
+  </si>
+  <si>
+    <t>UP_SUPPLIER_01</t>
+  </si>
+  <si>
+    <t>UP_SUPPLIER_02</t>
+  </si>
+  <si>
+    <t>UP_SUPPLIER_03</t>
+  </si>
+  <si>
+    <t>UP_SUPPLIER_04</t>
+  </si>
+  <si>
+    <t>UP_SUPPLIER_05</t>
+  </si>
+  <si>
+    <t>UP_SUPPLIER_06</t>
+  </si>
+  <si>
+    <t>UP_SUPPLIER_07</t>
+  </si>
+  <si>
+    <t>UP_SUPPLIER_08</t>
+  </si>
+  <si>
+    <t>1. Text must be translated correctly according to the console language 
+2. Can update supplier information</t>
+  </si>
+  <si>
+    <t>1. Error should be shown and  must be translated correctly according to the console language 
+2. Can not Update supplier</t>
+  </si>
+  <si>
+    <t>1. Error should be shown and  must be translated correctly according to the console language 
+2. Can not update supplier</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -234,7 +200,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,12 +216,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,13 +247,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -303,12 +260,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -529,451 +480,358 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G974"/>
+  <dimension ref="A1:G966"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="47.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="54.109375" collapsed="true"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="27.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="54.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
+      <c r="F6" t="s">
+        <v>28</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
+      <c r="G6" t="s">
+        <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="45.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="45.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="G9" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -6583,54 +6441,6 @@
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
     </row>
-    <row r="967" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B967" s="1"/>
-      <c r="C967" s="1"/>
-      <c r="D967" s="1"/>
-      <c r="E967" s="1"/>
-    </row>
-    <row r="968" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B968" s="1"/>
-      <c r="C968" s="1"/>
-      <c r="D968" s="1"/>
-      <c r="E968" s="1"/>
-    </row>
-    <row r="969" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B969" s="1"/>
-      <c r="C969" s="1"/>
-      <c r="D969" s="1"/>
-      <c r="E969" s="1"/>
-    </row>
-    <row r="970" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B970" s="1"/>
-      <c r="C970" s="1"/>
-      <c r="D970" s="1"/>
-      <c r="E970" s="1"/>
-    </row>
-    <row r="971" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B971" s="1"/>
-      <c r="C971" s="1"/>
-      <c r="D971" s="1"/>
-      <c r="E971" s="1"/>
-    </row>
-    <row r="972" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B972" s="1"/>
-      <c r="C972" s="1"/>
-      <c r="D972" s="1"/>
-      <c r="E972" s="1"/>
-    </row>
-    <row r="973" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B973" s="1"/>
-      <c r="C973" s="1"/>
-      <c r="D973" s="1"/>
-      <c r="E973" s="1"/>
-    </row>
-    <row r="974" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B974" s="1"/>
-      <c r="C974" s="1"/>
-      <c r="D974" s="1"/>
-      <c r="E974" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="11" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/excels/check_product_detail_sf/Update supplier.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Update supplier.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -174,6 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -486,10 +487,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="27.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="54.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="54.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -693,7 +694,7 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>

--- a/src/main/resources/excels/check_product_detail_sf/Update supplier.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Update supplier.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -532,10 +532,10 @@
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>28</v>
       </c>
     </row>
@@ -555,10 +555,10 @@
       <c r="E3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>28</v>
       </c>
     </row>
@@ -578,10 +578,10 @@
       <c r="E4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>27</v>
       </c>
     </row>
@@ -601,10 +601,10 @@
       <c r="E5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>28</v>
       </c>
     </row>
@@ -624,10 +624,10 @@
       <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>28</v>
       </c>
     </row>
@@ -647,10 +647,10 @@
       <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>28</v>
       </c>
     </row>
@@ -670,10 +670,10 @@
       <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>28</v>
       </c>
     </row>
@@ -693,10 +693,10 @@
       <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
-        <v>27</v>
+      <c r="F9" t="s" s="0">
+        <v>28</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>28</v>
       </c>
     </row>

--- a/src/main/resources/excels/check_product_detail_sf/Update supplier.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Update supplier.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="42">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>28</v>
@@ -556,7 +556,7 @@
         <v>39</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>28</v>
@@ -602,7 +602,7 @@
         <v>40</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>28</v>
@@ -625,7 +625,7 @@
         <v>40</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>28</v>
@@ -648,7 +648,7 @@
         <v>41</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>28</v>
@@ -671,7 +671,7 @@
         <v>21</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s" s="0">
         <v>28</v>
@@ -694,7 +694,7 @@
         <v>26</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>28</v>
